--- a/biology/Médecine/Laurent_Misery/Laurent_Misery.xlsx
+++ b/biology/Médecine/Laurent_Misery/Laurent_Misery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laurent Misery, né en 1963 à Saint-Étienne, est un médecin spécialiste français en dermatologie et vénérologie. Il enseigne à l'Université de Bretagne-Occidentale et dirige les recherches du Laboratoire de Neurosciences du CHU de Brest ; il popularise en France la psycho-dermatologie.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Laurent Misery, né le 23 juillet 1963[1] à Saint-Étienne, Loire, France, est Professeur des universités-praticien hospitalier lié à L’UBO, Chef du service de Dermatologie et de Vénérologie depuis 2001[2],[3] et Directeur du Laboratoire de Neurosciences du CHU de Brest.
-Président du Groupe Psychodermatologie de la Société française de dermatologie. Il a popularisé en France la psycho-dermatologie avec les premières consultations conjointes au CHU de Brest - collaboration entre un psychiatre ou un psychologue et un dermatologue[4].
-En 2017, il reçoit le Prix Herman Musaph en psycho-dermatologie, la plus haute distinction internationale de cette spécialité[5].
-En 2023, le professeur Misery et son laboratoire sont classés 3e selon le palmarès dermatologie du magazine Le Point pour sa spécialisation sur les dermatoses inflammatoires (psoriasis, eczéma…), le prurit et la neurodermatologie[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laurent Misery, né le 23 juillet 1963 à Saint-Étienne, Loire, France, est Professeur des universités-praticien hospitalier lié à L’UBO, Chef du service de Dermatologie et de Vénérologie depuis 2001, et Directeur du Laboratoire de Neurosciences du CHU de Brest.
+Président du Groupe Psychodermatologie de la Société française de dermatologie. Il a popularisé en France la psycho-dermatologie avec les premières consultations conjointes au CHU de Brest - collaboration entre un psychiatre ou un psychologue et un dermatologue.
+En 2017, il reçoit le Prix Herman Musaph en psycho-dermatologie, la plus haute distinction internationale de cette spécialité.
+En 2023, le professeur Misery et son laboratoire sont classés 3e selon le palmarès dermatologie du magazine Le Point pour sa spécialisation sur les dermatoses inflammatoires (psoriasis, eczéma…), le prurit et la neurodermatologie.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Votre peau a des choses à vous dire, Larousse, 2019[7].
-Pruritus, Springer, 2016[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Votre peau a des choses à vous dire, Larousse, 2019.
+Pruritus, Springer, 2016.
 Dermatologie, Elsevier Masson, 2011, rééd 2014.
 Variations sur la peau, tome 2,  L'harmattan, 2008.
 Variations sur la peau, tome 1, L'harmattan, 2007.
@@ -580,11 +596,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2023 : Prix académique « The cosmetic victories » décerné au laboratoire de dermatologie de l’UBO pour son travail sur des modèles de peau reconstruite[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2023 : Prix académique « The cosmetic victories » décerné au laboratoire de dermatologie de l’UBO pour son travail sur des modèles de peau reconstruite.
 2017 : Prix Herman Musaph, pour les travaux du professeur Misery sur les relations entre la peau et le psychisme.
-2001 : Coloplast prize[1].
+2001 : Coloplast prize.
 2000 : Noviderm prize.
 1996 : L'Oréal prize.</t>
         </is>
@@ -614,7 +632,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Psychosomatique</t>
         </is>
